--- a/rhla_analysis/rhla1_3_zipf_result/k5.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2211754009229054</v>
+        <v>0.2211754009229068</v>
       </c>
       <c r="B2" t="n">
         <v>10.53212383745309</v>
@@ -466,12 +466,12 @@
         <v>0.09335038363171355</v>
       </c>
       <c r="D2" t="n">
-        <v>47.61887530668135</v>
+        <v>47.61887530668105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08824690947026231</v>
+        <v>0.0882469094702618</v>
       </c>
       <c r="B3" t="n">
         <v>5.080246936520135</v>
@@ -480,12 +480,12 @@
         <v>0.09164535379369139</v>
       </c>
       <c r="D3" t="n">
-        <v>57.56855358466792</v>
+        <v>57.56855358466826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.432934561910292</v>
+        <v>0.4329345619102914</v>
       </c>
       <c r="B4" t="n">
         <v>12.83519026037041</v>
@@ -494,12 +494,12 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6469521946598</v>
+        <v>29.64695219465984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1841131919226378</v>
+        <v>0.1841131919226375</v>
       </c>
       <c r="B5" t="n">
         <v>20.72951449489296</v>
@@ -508,7 +508,7 @@
         <v>0.08866155157715259</v>
       </c>
       <c r="D5" t="n">
-        <v>112.5911417776259</v>
+        <v>112.5911417776261</v>
       </c>
     </row>
     <row r="6">
@@ -516,18 +516,18 @@
         <v>2.335265435766127</v>
       </c>
       <c r="B6" t="n">
-        <v>99.78448657850193</v>
+        <v>99.78448657850194</v>
       </c>
       <c r="C6" t="n">
         <v>0.08226768968456948</v>
       </c>
       <c r="D6" t="n">
-        <v>42.72939814474056</v>
+        <v>42.72939814474058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.331970818079992</v>
+        <v>0.3319708180799942</v>
       </c>
       <c r="B7" t="n">
         <v>34.70732701807822</v>
@@ -536,26 +536,26 @@
         <v>0.08226768968456948</v>
       </c>
       <c r="D7" t="n">
-        <v>104.5493312298164</v>
+        <v>104.5493312298157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3593798745013211</v>
+        <v>0.3593798745013247</v>
       </c>
       <c r="B8" t="n">
-        <v>20.44968874677238</v>
+        <v>20.44968874677239</v>
       </c>
       <c r="C8" t="n">
         <v>0.0959079283887468</v>
       </c>
       <c r="D8" t="n">
-        <v>56.90270991147895</v>
+        <v>56.90270991147838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5684320325932138</v>
+        <v>0.568432032593215</v>
       </c>
       <c r="B9" t="n">
         <v>46.14224428942302</v>
@@ -564,26 +564,26 @@
         <v>0.09505541346973571</v>
       </c>
       <c r="D9" t="n">
-        <v>81.1746024919108</v>
+        <v>81.17460249191065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.388422795988582</v>
+        <v>1.38842279598856</v>
       </c>
       <c r="B10" t="n">
-        <v>7.603414818013154</v>
+        <v>7.603414818013153</v>
       </c>
       <c r="C10" t="n">
         <v>0.08354646206308611</v>
       </c>
       <c r="D10" t="n">
-        <v>5.476296442251501</v>
+        <v>5.476296442251588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2994096855893839</v>
+        <v>0.2994096855893817</v>
       </c>
       <c r="B11" t="n">
         <v>11.25411514842983</v>
@@ -592,7 +592,7 @@
         <v>0.1035805626598466</v>
       </c>
       <c r="D11" t="n">
-        <v>37.58767898999746</v>
+        <v>37.58767898999773</v>
       </c>
     </row>
   </sheetData>
